--- a/PlainTimeInvariant/output/structForecastPercentiles.xlsx
+++ b/PlainTimeInvariant/output/structForecastPercentiles.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="220" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="286" uniqueCount="22">
   <si>
     <t>Time</t>
   </si>
@@ -131,23 +131,23 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="15.85546875" customWidth="true"/>
-    <col min="2" max="2" width="15.42578125" customWidth="true"/>
+    <col min="2" max="2" width="14.42578125" customWidth="true"/>
     <col min="3" max="3" width="11.7109375" customWidth="true"/>
     <col min="4" max="4" width="11.7109375" customWidth="true"/>
     <col min="5" max="5" width="14.42578125" customWidth="true"/>
     <col min="6" max="6" width="12.7109375" customWidth="true"/>
     <col min="7" max="7" width="11.7109375" customWidth="true"/>
     <col min="8" max="8" width="12.42578125" customWidth="true"/>
-    <col min="9" max="9" width="12.7109375" customWidth="true"/>
+    <col min="9" max="9" width="14.42578125" customWidth="true"/>
     <col min="10" max="10" width="11.7109375" customWidth="true"/>
     <col min="11" max="11" width="12.42578125" customWidth="true"/>
     <col min="12" max="12" width="15.42578125" customWidth="true"/>
     <col min="13" max="13" width="12.28515625" customWidth="true"/>
     <col min="14" max="14" width="13.42578125" customWidth="true"/>
-    <col min="15" max="15" width="16.42578125" customWidth="true"/>
+    <col min="15" max="15" width="14.7109375" customWidth="true"/>
     <col min="16" max="16" width="12.7109375" customWidth="true"/>
     <col min="17" max="17" width="12.42578125" customWidth="true"/>
-    <col min="18" max="18" width="14.42578125" customWidth="true"/>
+    <col min="18" max="18" width="14.7109375" customWidth="true"/>
     <col min="19" max="19" width="12" customWidth="true"/>
     <col min="20" max="20" width="5.7109375" customWidth="true"/>
     <col min="21" max="21" width="5.7109375" customWidth="true"/>
@@ -315,58 +315,58 @@
         <v>42005</v>
       </c>
       <c r="B4" s="0">
-        <v>1.2711893636277174</v>
+        <v>1.3501802875281734</v>
       </c>
       <c r="C4" s="0">
-        <v>2.4517402158909567</v>
+        <v>2.4697115679042501</v>
       </c>
       <c r="D4" s="0">
-        <v>3.648132082295958</v>
+        <v>3.6813118900953778</v>
       </c>
       <c r="E4" s="0">
-        <v>-0.095619457531629759</v>
+        <v>-0.071313180236800888</v>
       </c>
       <c r="F4" s="0">
-        <v>0.74047372741421613</v>
+        <v>0.71804518435784259</v>
       </c>
       <c r="G4" s="0">
-        <v>1.539643105385857</v>
+        <v>1.5828827151777105</v>
       </c>
       <c r="H4" s="0">
-        <v>-1.0317717371849815</v>
+        <v>-1.0200873188539217</v>
       </c>
       <c r="I4" s="0">
-        <v>0.10515899587073847</v>
+        <v>0.15608308599272352</v>
       </c>
       <c r="J4" s="0">
-        <v>1.3084655915039276</v>
+        <v>1.299472461590836</v>
       </c>
       <c r="K4" s="0">
-        <v>-1.1587134112641531</v>
+        <v>-1.1085088699890215</v>
       </c>
       <c r="L4" s="0">
-        <v>0.014236753809220556</v>
+        <v>0.0052620039918305243</v>
       </c>
       <c r="M4" s="0">
-        <v>1.1980512514006754</v>
+        <v>1.1862354209887296</v>
       </c>
       <c r="N4" s="0">
-        <v>-0.78687906251146778</v>
+        <v>-0.79656657202675163</v>
       </c>
       <c r="O4" s="0">
-        <v>0.012466812740657014</v>
+        <v>0.0032062499162818711</v>
       </c>
       <c r="P4" s="0">
-        <v>0.79268327907082792</v>
+        <v>0.83405279358389162</v>
       </c>
       <c r="Q4" s="0">
-        <v>-1.1448028487915367</v>
+        <v>-1.1666020275597779</v>
       </c>
       <c r="R4" s="0">
-        <v>-0.027507241222377868</v>
+        <v>0.029115036298440422</v>
       </c>
       <c r="S4" s="0">
-        <v>1.1154358033525007</v>
+        <v>1.1509484294971575</v>
       </c>
       <c r="T4" s="0">
         <v>94.319999999999993</v>
@@ -383,58 +383,58 @@
         <v>42095</v>
       </c>
       <c r="B5" s="0">
-        <v>0.58076707794170268</v>
+        <v>0.74215754078338869</v>
       </c>
       <c r="C5" s="0">
-        <v>2.2437250148749435</v>
+        <v>2.2139259332898118</v>
       </c>
       <c r="D5" s="0">
-        <v>3.8475037360949482</v>
+        <v>3.8246147352624584</v>
       </c>
       <c r="E5" s="0">
-        <v>-0.33362659191306671</v>
+        <v>-0.32411436585289877</v>
       </c>
       <c r="F5" s="0">
-        <v>0.91277978014498706</v>
+        <v>0.8139564308863666</v>
       </c>
       <c r="G5" s="0">
-        <v>2.0394472263827073</v>
+        <v>2.0387192757113861</v>
       </c>
       <c r="H5" s="0">
-        <v>-1.4863711456751663</v>
+        <v>-1.449386507727676</v>
       </c>
       <c r="I5" s="0">
-        <v>0.15785125932338498</v>
+        <v>0.11040050452994427</v>
       </c>
       <c r="J5" s="0">
-        <v>1.6451364807292976</v>
+        <v>1.7138400580709749</v>
       </c>
       <c r="K5" s="0">
-        <v>-1.1769214167416568</v>
+        <v>-1.1837510160448703</v>
       </c>
       <c r="L5" s="0">
-        <v>-0.0015291730745161476</v>
+        <v>-0.013990632815587371</v>
       </c>
       <c r="M5" s="0">
-        <v>1.1683238971889205</v>
+        <v>1.1505240016027809</v>
       </c>
       <c r="N5" s="0">
-        <v>-0.80126110201757228</v>
+        <v>-0.84150021575336809</v>
       </c>
       <c r="O5" s="0">
-        <v>0.011819651576261169</v>
+        <v>-0.017449103297040552</v>
       </c>
       <c r="P5" s="0">
-        <v>0.87947247787987526</v>
+        <v>0.74291291003344517</v>
       </c>
       <c r="Q5" s="0">
-        <v>-1.0628086435363158</v>
+        <v>-1.1484326184147702</v>
       </c>
       <c r="R5" s="0">
-        <v>0.023735200903921831</v>
+        <v>-0.029944074250276828</v>
       </c>
       <c r="S5" s="0">
-        <v>1.1619783999005855</v>
+        <v>1.0320563727505485</v>
       </c>
       <c r="T5" s="0">
         <v>94.319999999999993</v>
@@ -451,58 +451,58 @@
         <v>42186</v>
       </c>
       <c r="B6" s="0">
-        <v>0.28381686789913252</v>
+        <v>0.3214088638490788</v>
       </c>
       <c r="C6" s="0">
-        <v>2.1007845918347705</v>
+        <v>2.0964547254025021</v>
       </c>
       <c r="D6" s="0">
-        <v>3.7594858542724996</v>
+        <v>3.8302540671144412</v>
       </c>
       <c r="E6" s="0">
-        <v>-0.51081770845341024</v>
+        <v>-0.57856456534659784</v>
       </c>
       <c r="F6" s="0">
-        <v>1.0263269653830513</v>
+        <v>0.93570395532108885</v>
       </c>
       <c r="G6" s="0">
-        <v>2.4908857452661977</v>
+        <v>2.3208367786772497</v>
       </c>
       <c r="H6" s="0">
-        <v>-1.8934041993142263</v>
+        <v>-1.9248228640693981</v>
       </c>
       <c r="I6" s="0">
-        <v>0.11737724623494722</v>
+        <v>0.066998888122525774</v>
       </c>
       <c r="J6" s="0">
-        <v>2.0658388415142186</v>
+        <v>2.0627349186120987</v>
       </c>
       <c r="K6" s="0">
-        <v>-1.1319242092195427</v>
+        <v>-1.1900302073297322</v>
       </c>
       <c r="L6" s="0">
-        <v>0.037103375113092876</v>
+        <v>-0.032052937494842934</v>
       </c>
       <c r="M6" s="0">
-        <v>1.0918712897825635</v>
+        <v>1.1826802295368912</v>
       </c>
       <c r="N6" s="0">
-        <v>-0.79191962885838696</v>
+        <v>-0.86073153683666348</v>
       </c>
       <c r="O6" s="0">
-        <v>-0.00020786015119305702</v>
+        <v>-0.026036921866660359</v>
       </c>
       <c r="P6" s="0">
-        <v>0.81997398634595586</v>
+        <v>0.76066244397125216</v>
       </c>
       <c r="Q6" s="0">
-        <v>-1.0898443114740677</v>
+        <v>-1.1586976296197962</v>
       </c>
       <c r="R6" s="0">
-        <v>-0.0071609702895324631</v>
+        <v>-0.050593145650123045</v>
       </c>
       <c r="S6" s="0">
-        <v>1.090463863418635</v>
+        <v>1.0959609721529275</v>
       </c>
       <c r="T6" s="0">
         <v>94.319999999999993</v>
@@ -519,58 +519,58 @@
         <v>42278</v>
       </c>
       <c r="B7" s="0">
-        <v>-0.0046939465361285349</v>
+        <v>0.084738085376984074</v>
       </c>
       <c r="C7" s="0">
-        <v>1.958113073179079</v>
+        <v>1.9747228109168651</v>
       </c>
       <c r="D7" s="0">
-        <v>3.683969892929011</v>
+        <v>3.7493266826001483</v>
       </c>
       <c r="E7" s="0">
-        <v>-0.57506656811009993</v>
+        <v>-0.60144999829864165</v>
       </c>
       <c r="F7" s="0">
-        <v>1.1103948670082313</v>
+        <v>0.98282322632010422</v>
       </c>
       <c r="G7" s="0">
-        <v>2.7563221347601345</v>
+        <v>2.6943610609572994</v>
       </c>
       <c r="H7" s="0">
-        <v>-2.1467591195763251</v>
+        <v>-2.2571369201721474</v>
       </c>
       <c r="I7" s="0">
-        <v>0.16977852417083805</v>
+        <v>0.039674744808905919</v>
       </c>
       <c r="J7" s="0">
-        <v>2.5015255339511193</v>
+        <v>2.3067028093142232</v>
       </c>
       <c r="K7" s="0">
-        <v>-1.127646734427965</v>
+        <v>-1.1144820631819892</v>
       </c>
       <c r="L7" s="0">
-        <v>0.028660203607708636</v>
+        <v>0.010471272348947964</v>
       </c>
       <c r="M7" s="0">
-        <v>1.1453008360836521</v>
+        <v>1.0871959791073662</v>
       </c>
       <c r="N7" s="0">
-        <v>-0.71960966979428831</v>
+        <v>-0.80936035878552381</v>
       </c>
       <c r="O7" s="0">
-        <v>0.014095849468678576</v>
+        <v>0.014074489586653763</v>
       </c>
       <c r="P7" s="0">
-        <v>0.84900260826032015</v>
+        <v>0.7858268747566336</v>
       </c>
       <c r="Q7" s="0">
-        <v>-1.1408167283135069</v>
+        <v>-1.1207605266591274</v>
       </c>
       <c r="R7" s="0">
-        <v>0.017146742443968757</v>
+        <v>0.02107182634954767</v>
       </c>
       <c r="S7" s="0">
-        <v>1.209767614431112</v>
+        <v>1.0164438332000696</v>
       </c>
       <c r="T7" s="0">
         <v>94.319999999999993</v>
@@ -587,58 +587,58 @@
         <v>42370</v>
       </c>
       <c r="B8" s="0">
-        <v>-0.14071106746319645</v>
+        <v>-0.032291140918858943</v>
       </c>
       <c r="C8" s="0">
-        <v>1.8283844640956159</v>
+        <v>1.8239805385359706</v>
       </c>
       <c r="D8" s="0">
-        <v>3.6653124024495414</v>
+        <v>3.6438166113594397</v>
       </c>
       <c r="E8" s="0">
-        <v>-0.61384277217420058</v>
+        <v>-0.7518483674180696</v>
       </c>
       <c r="F8" s="0">
-        <v>1.1476992517308515</v>
+        <v>1.0769523176939124</v>
       </c>
       <c r="G8" s="0">
-        <v>3.0256578242249343</v>
+        <v>2.8960460253263154</v>
       </c>
       <c r="H8" s="0">
-        <v>-2.5001734315900443</v>
+        <v>-2.5026633382978249</v>
       </c>
       <c r="I8" s="0">
-        <v>0.23042891057673298</v>
+        <v>0.038786701399367796</v>
       </c>
       <c r="J8" s="0">
-        <v>2.6731624810395349</v>
+        <v>2.4612885776974531</v>
       </c>
       <c r="K8" s="0">
-        <v>-1.2010353596281476</v>
+        <v>-1.1544135956806065</v>
       </c>
       <c r="L8" s="0">
-        <v>-0.013390947614950934</v>
+        <v>-0.023042149997050801</v>
       </c>
       <c r="M8" s="0">
-        <v>1.2351219755267193</v>
+        <v>1.1172813759438327</v>
       </c>
       <c r="N8" s="0">
-        <v>-0.78339210126087466</v>
+        <v>-0.81168734045052382</v>
       </c>
       <c r="O8" s="0">
-        <v>-0.010134125113012933</v>
+        <v>-0.013619971485836629</v>
       </c>
       <c r="P8" s="0">
-        <v>0.83268610580976443</v>
+        <v>0.81079114078499093</v>
       </c>
       <c r="Q8" s="0">
-        <v>-1.0598026336326405</v>
+        <v>-1.145235745691338</v>
       </c>
       <c r="R8" s="0">
-        <v>0.044768322769417876</v>
+        <v>-0.028433743913039405</v>
       </c>
       <c r="S8" s="0">
-        <v>1.0838391546262227</v>
+        <v>1.0634045505575456</v>
       </c>
       <c r="T8" s="0">
         <v>94.319999999999993</v>
@@ -655,58 +655,58 @@
         <v>42461</v>
       </c>
       <c r="B9" s="0">
-        <v>-0.2972155013689739</v>
+        <v>-0.19833122980938606</v>
       </c>
       <c r="C9" s="0">
-        <v>1.7306911621486327</v>
+        <v>1.6973860558897449</v>
       </c>
       <c r="D9" s="0">
-        <v>3.6649252125888032</v>
+        <v>3.7364175394178494</v>
       </c>
       <c r="E9" s="0">
-        <v>-0.70568855511665041</v>
+        <v>-0.8119700067532809</v>
       </c>
       <c r="F9" s="0">
-        <v>1.2489098788661033</v>
+        <v>1.1123438203480824</v>
       </c>
       <c r="G9" s="0">
-        <v>3.2674246203950177</v>
+        <v>3.1649423538855883</v>
       </c>
       <c r="H9" s="0">
-        <v>-2.7100148109847959</v>
+        <v>-2.767361510482754</v>
       </c>
       <c r="I9" s="0">
-        <v>0.12152167987436696</v>
+        <v>-0.034809000377863497</v>
       </c>
       <c r="J9" s="0">
-        <v>2.9525021328169889</v>
+        <v>2.8183658382731984</v>
       </c>
       <c r="K9" s="0">
-        <v>-1.2025618025848095</v>
+        <v>-1.1157096332424821</v>
       </c>
       <c r="L9" s="0">
-        <v>-0.01683707467242903</v>
+        <v>-0.0099406402294982751</v>
       </c>
       <c r="M9" s="0">
-        <v>1.1398566979379843</v>
+        <v>1.1451593890877323</v>
       </c>
       <c r="N9" s="0">
-        <v>-0.82153700250640527</v>
+        <v>-0.76648771169936669</v>
       </c>
       <c r="O9" s="0">
-        <v>0.018888171804474156</v>
+        <v>-0.030889461158629446</v>
       </c>
       <c r="P9" s="0">
-        <v>0.83476689441258278</v>
+        <v>0.77224402720786223</v>
       </c>
       <c r="Q9" s="0">
-        <v>-1.1008310579480884</v>
+        <v>-1.0649167575608103</v>
       </c>
       <c r="R9" s="0">
-        <v>-0.072801794088103361</v>
+        <v>-0.0110920013162671</v>
       </c>
       <c r="S9" s="0">
-        <v>1.0808100442907094</v>
+        <v>1.0914171653582656</v>
       </c>
       <c r="T9" s="0">
         <v>94.319999999999993</v>
@@ -723,58 +723,58 @@
         <v>42552</v>
       </c>
       <c r="B10" s="0">
-        <v>-0.21358853581393666</v>
+        <v>-0.17159614374498228</v>
       </c>
       <c r="C10" s="0">
-        <v>1.5375276589680171</v>
+        <v>1.6643719559832033</v>
       </c>
       <c r="D10" s="0">
-        <v>3.7436185254668057</v>
+        <v>3.5666033661612371</v>
       </c>
       <c r="E10" s="0">
-        <v>-0.77451611855117697</v>
+        <v>-0.89314094306492886</v>
       </c>
       <c r="F10" s="0">
-        <v>1.2609271850282711</v>
+        <v>1.2145054702813063</v>
       </c>
       <c r="G10" s="0">
-        <v>3.3971390220880133</v>
+        <v>3.2714468446677336</v>
       </c>
       <c r="H10" s="0">
-        <v>-2.92508835917591</v>
+        <v>-3.0677364477091924</v>
       </c>
       <c r="I10" s="0">
-        <v>0.22359661006236764</v>
+        <v>0.075546088965808195</v>
       </c>
       <c r="J10" s="0">
-        <v>3.1951077494806581</v>
+        <v>3.1428243846176205</v>
       </c>
       <c r="K10" s="0">
-        <v>-1.129803128136833</v>
+        <v>-1.0959320560370451</v>
       </c>
       <c r="L10" s="0">
-        <v>-0.048684818860832084</v>
+        <v>0.0027359044575005812</v>
       </c>
       <c r="M10" s="0">
-        <v>1.1848458377009381</v>
+        <v>1.1167932701792185</v>
       </c>
       <c r="N10" s="0">
-        <v>-0.79582008416068151</v>
+        <v>-0.79859881635878249</v>
       </c>
       <c r="O10" s="0">
-        <v>0.023399468095582507</v>
+        <v>0.0032113618536522975</v>
       </c>
       <c r="P10" s="0">
-        <v>0.7931794170024058</v>
+        <v>0.79118532060508495</v>
       </c>
       <c r="Q10" s="0">
-        <v>-1.0105196053359082</v>
+        <v>-1.0378389640866938</v>
       </c>
       <c r="R10" s="0">
-        <v>0.015557247769711253</v>
+        <v>0.0068815295276704186</v>
       </c>
       <c r="S10" s="0">
-        <v>1.1331782050901344</v>
+        <v>1.1230340387019662</v>
       </c>
       <c r="T10" s="0">
         <v>94.319999999999993</v>
@@ -791,58 +791,58 @@
         <v>42644</v>
       </c>
       <c r="B11" s="0">
-        <v>-0.44589147540766677</v>
+        <v>-0.41433820020202661</v>
       </c>
       <c r="C11" s="0">
-        <v>1.6245118639209344</v>
+        <v>1.5588654596856406</v>
       </c>
       <c r="D11" s="0">
-        <v>3.6113697974691448</v>
+        <v>3.4200203948549524</v>
       </c>
       <c r="E11" s="0">
-        <v>-0.91893023133292639</v>
+        <v>-0.99514637580641507</v>
       </c>
       <c r="F11" s="0">
-        <v>1.3086195378296535</v>
+        <v>1.2266570779844652</v>
       </c>
       <c r="G11" s="0">
-        <v>3.5820671204797589</v>
+        <v>3.4920390181733136</v>
       </c>
       <c r="H11" s="0">
-        <v>-3.2571898619875905</v>
+        <v>-3.2854926985459425</v>
       </c>
       <c r="I11" s="0">
-        <v>0.080762744952239729</v>
+        <v>0.068002217132552154</v>
       </c>
       <c r="J11" s="0">
-        <v>3.4072034232708157</v>
+        <v>3.1911804198452103</v>
       </c>
       <c r="K11" s="0">
-        <v>-1.140319436631442</v>
+        <v>-1.2698729428501778</v>
       </c>
       <c r="L11" s="0">
-        <v>0.0023356733932677191</v>
+        <v>-0.10194011465320843</v>
       </c>
       <c r="M11" s="0">
-        <v>1.2052625664067329</v>
+        <v>1.1194975676648828</v>
       </c>
       <c r="N11" s="0">
-        <v>-0.82475861654862015</v>
+        <v>-0.83629662504412072</v>
       </c>
       <c r="O11" s="0">
-        <v>0.0073766223460283858</v>
+        <v>-0.017236407841014503</v>
       </c>
       <c r="P11" s="0">
-        <v>0.83027371197958832</v>
+        <v>0.77293441532321661</v>
       </c>
       <c r="Q11" s="0">
-        <v>-1.2133987123940946</v>
+        <v>-1.1170161457084018</v>
       </c>
       <c r="R11" s="0">
-        <v>-0.067388476092196475</v>
+        <v>-0.0286567504874915</v>
       </c>
       <c r="S11" s="0">
-        <v>1.0847837201302233</v>
+        <v>1.1464976889257221</v>
       </c>
       <c r="T11" s="0">
         <v>94.319999999999993</v>

--- a/PlainTimeInvariant/output/structForecastPercentiles.xlsx
+++ b/PlainTimeInvariant/output/structForecastPercentiles.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="286" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="429" uniqueCount="36">
   <si>
     <t>Time</t>
   </si>
@@ -79,6 +79,48 @@
   </si>
   <si>
     <t>Oil_3</t>
+  </si>
+  <si>
+    <t>GDP_4</t>
+  </si>
+  <si>
+    <t>GDP_5</t>
+  </si>
+  <si>
+    <t>CPI_4</t>
+  </si>
+  <si>
+    <t>CPI_5</t>
+  </si>
+  <si>
+    <t>STN_4</t>
+  </si>
+  <si>
+    <t>STN_5</t>
+  </si>
+  <si>
+    <t>GDP_resid_4</t>
+  </si>
+  <si>
+    <t>GDP_resid_5</t>
+  </si>
+  <si>
+    <t>CPI_resid_4</t>
+  </si>
+  <si>
+    <t>CPI_resid_5</t>
+  </si>
+  <si>
+    <t>STN_resid_4</t>
+  </si>
+  <si>
+    <t>STN_resid_5</t>
+  </si>
+  <si>
+    <t>Oil_4</t>
+  </si>
+  <si>
+    <t>Oil_5</t>
   </si>
 </sst>
 </file>
@@ -124,7 +166,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V11"/>
+  <dimension ref="A1:AJ11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -134,24 +176,38 @@
     <col min="2" max="2" width="14.42578125" customWidth="true"/>
     <col min="3" max="3" width="11.7109375" customWidth="true"/>
     <col min="4" max="4" width="11.7109375" customWidth="true"/>
-    <col min="5" max="5" width="14.42578125" customWidth="true"/>
+    <col min="5" max="5" width="13.42578125" customWidth="true"/>
     <col min="6" max="6" width="12.7109375" customWidth="true"/>
     <col min="7" max="7" width="11.7109375" customWidth="true"/>
     <col min="8" max="8" width="12.42578125" customWidth="true"/>
-    <col min="9" max="9" width="14.42578125" customWidth="true"/>
+    <col min="9" max="9" width="13.7109375" customWidth="true"/>
     <col min="10" max="10" width="11.7109375" customWidth="true"/>
     <col min="11" max="11" width="12.42578125" customWidth="true"/>
-    <col min="12" max="12" width="15.42578125" customWidth="true"/>
+    <col min="12" max="12" width="14.42578125" customWidth="true"/>
     <col min="13" max="13" width="12.28515625" customWidth="true"/>
     <col min="14" max="14" width="13.42578125" customWidth="true"/>
-    <col min="15" max="15" width="14.7109375" customWidth="true"/>
+    <col min="15" max="15" width="15.42578125" customWidth="true"/>
     <col min="16" max="16" width="12.7109375" customWidth="true"/>
     <col min="17" max="17" width="12.42578125" customWidth="true"/>
-    <col min="18" max="18" width="14.7109375" customWidth="true"/>
+    <col min="18" max="18" width="15.7109375" customWidth="true"/>
     <col min="19" max="19" width="12" customWidth="true"/>
     <col min="20" max="20" width="5.7109375" customWidth="true"/>
     <col min="21" max="21" width="5.7109375" customWidth="true"/>
     <col min="22" max="22" width="5.7109375" customWidth="true"/>
+    <col min="23" max="23" width="13.42578125" customWidth="true"/>
+    <col min="24" max="24" width="14.42578125" customWidth="true"/>
+    <col min="25" max="25" width="12.7109375" customWidth="true"/>
+    <col min="26" max="26" width="12.7109375" customWidth="true"/>
+    <col min="27" max="27" width="12.42578125" customWidth="true"/>
+    <col min="28" max="28" width="13.42578125" customWidth="true"/>
+    <col min="29" max="29" width="15.42578125" customWidth="true"/>
+    <col min="30" max="30" width="12.7109375" customWidth="true"/>
+    <col min="31" max="31" width="12" customWidth="true"/>
+    <col min="32" max="32" width="5.7109375" customWidth="true"/>
+    <col min="33" max="33" width="5.7109375" customWidth="true"/>
+    <col min="34" max="34" width="5.7109375" customWidth="true"/>
+    <col min="35" max="35" width="5.7109375" customWidth="true"/>
+    <col min="36" max="36" width="5.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -220,6 +276,48 @@
       </c>
       <c r="V1" s="0" t="s">
         <v>21</v>
+      </c>
+      <c r="W1" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="X1" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y1" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z1" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA1" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB1" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC1" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD1" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="AE1" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="AF1" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="AG1" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="AH1" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="AI1" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="0" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="2">
@@ -265,6 +363,20 @@
       <c r="T2" s="0"/>
       <c r="U2" s="0"/>
       <c r="V2" s="0"/>
+      <c r="W2" s="0"/>
+      <c r="X2" s="0"/>
+      <c r="Y2" s="0"/>
+      <c r="Z2" s="0"/>
+      <c r="AA2" s="0"/>
+      <c r="AB2" s="0"/>
+      <c r="AC2" s="0"/>
+      <c r="AD2" s="0"/>
+      <c r="AE2" s="0"/>
+      <c r="AF2" s="0"/>
+      <c r="AG2" s="0"/>
+      <c r="AH2" s="0"/>
+      <c r="AI2" s="0"/>
+      <c r="AJ2" s="0"/>
     </row>
     <row r="3">
       <c r="A3" s="1">
@@ -309,64 +421,78 @@
       <c r="T3" s="0"/>
       <c r="U3" s="0"/>
       <c r="V3" s="0"/>
+      <c r="W3" s="0"/>
+      <c r="X3" s="0"/>
+      <c r="Y3" s="0"/>
+      <c r="Z3" s="0"/>
+      <c r="AA3" s="0"/>
+      <c r="AB3" s="0"/>
+      <c r="AC3" s="0"/>
+      <c r="AD3" s="0"/>
+      <c r="AE3" s="0"/>
+      <c r="AF3" s="0"/>
+      <c r="AG3" s="0"/>
+      <c r="AH3" s="0"/>
+      <c r="AI3" s="0"/>
+      <c r="AJ3" s="0"/>
     </row>
     <row r="4">
       <c r="A4" s="1">
         <v>42005</v>
       </c>
       <c r="B4" s="0">
-        <v>1.3501802875281734</v>
+        <v>1.3144536703978837</v>
       </c>
       <c r="C4" s="0">
-        <v>2.4697115679042501</v>
+        <v>2.5884427259866469</v>
       </c>
       <c r="D4" s="0">
-        <v>3.6813118900953778</v>
+        <v>3.8739779249569022</v>
       </c>
       <c r="E4" s="0">
-        <v>-0.071313180236800888</v>
+        <v>-0.2377629769811398</v>
       </c>
       <c r="F4" s="0">
-        <v>0.71804518435784259</v>
+        <v>0.62012921978390145</v>
       </c>
       <c r="G4" s="0">
-        <v>1.5828827151777105</v>
+        <v>1.4476168369383826</v>
       </c>
       <c r="H4" s="0">
-        <v>-1.0200873188539217</v>
+        <v>-1.0799330600562105</v>
       </c>
       <c r="I4" s="0">
-        <v>0.15608308599272352</v>
+        <v>0.089068912108051679</v>
       </c>
       <c r="J4" s="0">
-        <v>1.299472461590836</v>
+        <v>1.2955690368514881</v>
       </c>
       <c r="K4" s="0">
-        <v>-1.1085088699890215</v>
+        <v>-1.2711772922097193</v>
       </c>
       <c r="L4" s="0">
-        <v>0.0052620039918305243</v>
+        <v>-0.037424009030222888</v>
       </c>
       <c r="M4" s="0">
-        <v>1.1862354209887296</v>
+        <v>1.2335029548807983</v>
       </c>
       <c r="N4" s="0">
-        <v>-0.79656657202675163</v>
+        <v>-0.79750504636651198</v>
       </c>
       <c r="O4" s="0">
-        <v>0.0032062499162818711</v>
+        <v>0.035077412017176922</v>
       </c>
       <c r="P4" s="0">
-        <v>0.83405279358389162</v>
+        <v>0.85615524389297404</v>
       </c>
       <c r="Q4" s="0">
-        <v>-1.1666020275597779</v>
+        <v>-1.0890811680971102</v>
       </c>
       <c r="R4" s="0">
-        <v>0.029115036298440422</v>
+        <v>0.05987286436487714</v>
       </c>
       <c r="S4" s="0">
-        <v>1.1509484294971575</v>
+        <v>1.1938677739165791</v>
       </c>
       <c r="T4" s="0">
         <v>94.319999999999993</v>
@@ -375,6 +501,48 @@
         <v>94.319999999999993</v>
       </c>
       <c r="V4" s="0">
+        <v>94.319999999999993</v>
+      </c>
+      <c r="W4" s="0">
+        <v>-0.50164687929549634</v>
+      </c>
+      <c r="X4" s="0">
+        <v>-0.022933104240809341</v>
+      </c>
+      <c r="Y4" s="0">
+        <v>0.48251988483344849</v>
+      </c>
+      <c r="Z4" s="0">
+        <v>0.75566507835116425</v>
+      </c>
+      <c r="AA4" s="0">
+        <v>-1.0481735271198411</v>
+      </c>
+      <c r="AB4" s="0">
+        <v>-0.69661275062343453</v>
+      </c>
+      <c r="AC4" s="0">
+        <v>0.0010013173518714264</v>
+      </c>
+      <c r="AD4" s="0">
+        <v>0.69308253405406162</v>
+      </c>
+      <c r="AE4" s="0">
+        <v>1.0811120736071993</v>
+      </c>
+      <c r="AF4" s="0">
+        <v>94.319999999999993</v>
+      </c>
+      <c r="AG4" s="0">
+        <v>94.319999999999993</v>
+      </c>
+      <c r="AH4" s="0">
+        <v>94.319999999999993</v>
+      </c>
+      <c r="AI4" s="0">
+        <v>94.319999999999993</v>
+      </c>
+      <c r="AJ4" s="0">
         <v>94.319999999999993</v>
       </c>
     </row>
@@ -383,58 +551,58 @@
         <v>42095</v>
       </c>
       <c r="B5" s="0">
-        <v>0.74215754078338869</v>
+        <v>0.74807023117222726</v>
       </c>
       <c r="C5" s="0">
-        <v>2.2139259332898118</v>
+        <v>2.5321684073268167</v>
       </c>
       <c r="D5" s="0">
-        <v>3.8246147352624584</v>
+        <v>4.4181563610766528</v>
       </c>
       <c r="E5" s="0">
-        <v>-0.32411436585289877</v>
+        <v>-0.56542976200247419</v>
       </c>
       <c r="F5" s="0">
-        <v>0.8139564308863666</v>
+        <v>0.61258935336987586</v>
       </c>
       <c r="G5" s="0">
-        <v>2.0387192757113861</v>
+        <v>1.8239293582022809</v>
       </c>
       <c r="H5" s="0">
-        <v>-1.449386507727676</v>
+        <v>-1.705422694942158</v>
       </c>
       <c r="I5" s="0">
-        <v>0.11040050452994427</v>
+        <v>0.066389527776110568</v>
       </c>
       <c r="J5" s="0">
-        <v>1.7138400580709749</v>
+        <v>1.6868139981054724</v>
       </c>
       <c r="K5" s="0">
-        <v>-1.1837510160448703</v>
+        <v>-1.2482420392487237</v>
       </c>
       <c r="L5" s="0">
-        <v>-0.013990632815587371</v>
+        <v>0.050427860820760381</v>
       </c>
       <c r="M5" s="0">
-        <v>1.1505240016027809</v>
+        <v>1.3071430186739974</v>
       </c>
       <c r="N5" s="0">
-        <v>-0.84150021575336809</v>
+        <v>-0.76392179379641822</v>
       </c>
       <c r="O5" s="0">
-        <v>-0.017449103297040552</v>
+        <v>0.021616053632326111</v>
       </c>
       <c r="P5" s="0">
-        <v>0.74291291003344517</v>
+        <v>0.88565183148041937</v>
       </c>
       <c r="Q5" s="0">
-        <v>-1.1484326184147702</v>
+        <v>-1.1878149103267508</v>
       </c>
       <c r="R5" s="0">
-        <v>-0.029944074250276828</v>
+        <v>0.025468737572536121</v>
       </c>
       <c r="S5" s="0">
-        <v>1.0320563727505485</v>
+        <v>1.2361073338863624</v>
       </c>
       <c r="T5" s="0">
         <v>94.319999999999993</v>
@@ -443,6 +611,48 @@
         <v>94.319999999999993</v>
       </c>
       <c r="V5" s="0">
+        <v>94.319999999999993</v>
+      </c>
+      <c r="W5" s="0">
+        <v>-0.54867941493961636</v>
+      </c>
+      <c r="X5" s="0">
+        <v>0.025151170686630482</v>
+      </c>
+      <c r="Y5" s="0">
+        <v>0.56708045830099507</v>
+      </c>
+      <c r="Z5" s="0">
+        <v>0.80870484658819075</v>
+      </c>
+      <c r="AA5" s="0">
+        <v>-1.0659965758757113</v>
+      </c>
+      <c r="AB5" s="0">
+        <v>-0.74439549390577331</v>
+      </c>
+      <c r="AC5" s="0">
+        <v>-0.0021167800373204371</v>
+      </c>
+      <c r="AD5" s="0">
+        <v>0.75166250940332002</v>
+      </c>
+      <c r="AE5" s="0">
+        <v>1.1277102177962539</v>
+      </c>
+      <c r="AF5" s="0">
+        <v>94.319999999999993</v>
+      </c>
+      <c r="AG5" s="0">
+        <v>94.319999999999993</v>
+      </c>
+      <c r="AH5" s="0">
+        <v>94.319999999999993</v>
+      </c>
+      <c r="AI5" s="0">
+        <v>94.319999999999993</v>
+      </c>
+      <c r="AJ5" s="0">
         <v>94.319999999999993</v>
       </c>
     </row>
@@ -451,58 +661,58 @@
         <v>42186</v>
       </c>
       <c r="B6" s="0">
-        <v>0.3214088638490788</v>
+        <v>0.26397282097193431</v>
       </c>
       <c r="C6" s="0">
-        <v>2.0964547254025021</v>
+        <v>2.3896299485367871</v>
       </c>
       <c r="D6" s="0">
-        <v>3.8302540671144412</v>
+        <v>4.5927631618661042</v>
       </c>
       <c r="E6" s="0">
-        <v>-0.57856456534659784</v>
+        <v>-0.93618763832512963</v>
       </c>
       <c r="F6" s="0">
-        <v>0.93570395532108885</v>
+        <v>0.63192437870573892</v>
       </c>
       <c r="G6" s="0">
-        <v>2.3208367786772497</v>
+        <v>2.1130639629296075</v>
       </c>
       <c r="H6" s="0">
-        <v>-1.9248228640693981</v>
+        <v>-2.2830013467357686</v>
       </c>
       <c r="I6" s="0">
-        <v>0.066998888122525774</v>
+        <v>-0.10250072788156736</v>
       </c>
       <c r="J6" s="0">
-        <v>2.0627349186120987</v>
+        <v>2.0161108344286944</v>
       </c>
       <c r="K6" s="0">
-        <v>-1.1900302073297322</v>
+        <v>-1.3052304791383669</v>
       </c>
       <c r="L6" s="0">
-        <v>-0.032052937494842934</v>
+        <v>-0.05591844637413218</v>
       </c>
       <c r="M6" s="0">
-        <v>1.1826802295368912</v>
+        <v>1.2278605050803824</v>
       </c>
       <c r="N6" s="0">
-        <v>-0.86073153683666348</v>
+        <v>-0.78592125729471252</v>
       </c>
       <c r="O6" s="0">
-        <v>-0.026036921866660359</v>
+        <v>-0.0080411811688669704</v>
       </c>
       <c r="P6" s="0">
-        <v>0.76066244397125216</v>
+        <v>0.79213260150022313</v>
       </c>
       <c r="Q6" s="0">
-        <v>-1.1586976296197962</v>
+        <v>-1.2667522760586263</v>
       </c>
       <c r="R6" s="0">
-        <v>-0.050593145650123045</v>
+        <v>-0.050907452102447959</v>
       </c>
       <c r="S6" s="0">
-        <v>1.0959609721529275</v>
+        <v>1.1063178458755454</v>
       </c>
       <c r="T6" s="0">
         <v>94.319999999999993</v>
@@ -511,6 +721,48 @@
         <v>94.319999999999993</v>
       </c>
       <c r="V6" s="0">
+        <v>94.319999999999993</v>
+      </c>
+      <c r="W6" s="0">
+        <v>-0.5520999668097788</v>
+      </c>
+      <c r="X6" s="0">
+        <v>-0.015528246478672</v>
+      </c>
+      <c r="Y6" s="0">
+        <v>0.51006400069535229</v>
+      </c>
+      <c r="Z6" s="0">
+        <v>0.81732538865533921</v>
+      </c>
+      <c r="AA6" s="0">
+        <v>-1.05573261772469</v>
+      </c>
+      <c r="AB6" s="0">
+        <v>-0.71093960048950011</v>
+      </c>
+      <c r="AC6" s="0">
+        <v>-0.0047413459421875599</v>
+      </c>
+      <c r="AD6" s="0">
+        <v>0.73931994642561838</v>
+      </c>
+      <c r="AE6" s="0">
+        <v>1.0967556100548437</v>
+      </c>
+      <c r="AF6" s="0">
+        <v>94.319999999999993</v>
+      </c>
+      <c r="AG6" s="0">
+        <v>94.319999999999993</v>
+      </c>
+      <c r="AH6" s="0">
+        <v>94.319999999999993</v>
+      </c>
+      <c r="AI6" s="0">
+        <v>94.319999999999993</v>
+      </c>
+      <c r="AJ6" s="0">
         <v>94.319999999999993</v>
       </c>
     </row>
@@ -519,58 +771,58 @@
         <v>42278</v>
       </c>
       <c r="B7" s="0">
-        <v>0.084738085376984074</v>
+        <v>-0.032793095936055491</v>
       </c>
       <c r="C7" s="0">
-        <v>1.9747228109168651</v>
+        <v>2.3783867945563317</v>
       </c>
       <c r="D7" s="0">
-        <v>3.7493266826001483</v>
+        <v>4.6303851289547175</v>
       </c>
       <c r="E7" s="0">
-        <v>-0.60144999829864165</v>
+        <v>-1.238688048767747</v>
       </c>
       <c r="F7" s="0">
-        <v>0.98282322632010422</v>
+        <v>0.56936332738531059</v>
       </c>
       <c r="G7" s="0">
-        <v>2.6943610609572994</v>
+        <v>2.3621577333325372</v>
       </c>
       <c r="H7" s="0">
-        <v>-2.2571369201721474</v>
+        <v>-2.6659889281613793</v>
       </c>
       <c r="I7" s="0">
-        <v>0.039674744808905919</v>
+        <v>-0.14626285717858428</v>
       </c>
       <c r="J7" s="0">
-        <v>2.3067028093142232</v>
+        <v>2.1373317035993571</v>
       </c>
       <c r="K7" s="0">
-        <v>-1.1144820631819892</v>
+        <v>-1.2471428396533448</v>
       </c>
       <c r="L7" s="0">
-        <v>0.010471272348947964</v>
+        <v>0.02267916342790393</v>
       </c>
       <c r="M7" s="0">
-        <v>1.0871959791073662</v>
+        <v>1.1919951731149447</v>
       </c>
       <c r="N7" s="0">
-        <v>-0.80936035878552381</v>
+        <v>-0.8379808109642819</v>
       </c>
       <c r="O7" s="0">
-        <v>0.014074489586653763</v>
+        <v>0.018553249202019829</v>
       </c>
       <c r="P7" s="0">
-        <v>0.7858268747566336</v>
+        <v>0.84961851070238681</v>
       </c>
       <c r="Q7" s="0">
-        <v>-1.1207605266591274</v>
+        <v>-1.2010878644182703</v>
       </c>
       <c r="R7" s="0">
-        <v>0.02107182634954767</v>
+        <v>0.013634566045255717</v>
       </c>
       <c r="S7" s="0">
-        <v>1.0164438332000696</v>
+        <v>1.1167983548729343</v>
       </c>
       <c r="T7" s="0">
         <v>94.319999999999993</v>
@@ -579,6 +831,48 @@
         <v>94.319999999999993</v>
       </c>
       <c r="V7" s="0">
+        <v>94.319999999999993</v>
+      </c>
+      <c r="W7" s="0">
+        <v>-0.46064671673042556</v>
+      </c>
+      <c r="X7" s="0">
+        <v>0.020989066896017948</v>
+      </c>
+      <c r="Y7" s="0">
+        <v>0.56866963633860579</v>
+      </c>
+      <c r="Z7" s="0">
+        <v>0.83190761665238311</v>
+      </c>
+      <c r="AA7" s="0">
+        <v>-1.0472446348697888</v>
+      </c>
+      <c r="AB7" s="0">
+        <v>-0.70502353309803645</v>
+      </c>
+      <c r="AC7" s="0">
+        <v>0.031070113589327361</v>
+      </c>
+      <c r="AD7" s="0">
+        <v>0.78151448269590196</v>
+      </c>
+      <c r="AE7" s="0">
+        <v>1.1374452636135626</v>
+      </c>
+      <c r="AF7" s="0">
+        <v>94.319999999999993</v>
+      </c>
+      <c r="AG7" s="0">
+        <v>94.319999999999993</v>
+      </c>
+      <c r="AH7" s="0">
+        <v>94.319999999999993</v>
+      </c>
+      <c r="AI7" s="0">
+        <v>94.319999999999993</v>
+      </c>
+      <c r="AJ7" s="0">
         <v>94.319999999999993</v>
       </c>
     </row>
@@ -587,58 +881,58 @@
         <v>42370</v>
       </c>
       <c r="B8" s="0">
-        <v>-0.032291140918858943</v>
+        <v>-0.27278796724200571</v>
       </c>
       <c r="C8" s="0">
-        <v>1.8239805385359706</v>
+        <v>2.3478672499187043</v>
       </c>
       <c r="D8" s="0">
-        <v>3.6438166113594397</v>
+        <v>4.7458960170903746</v>
       </c>
       <c r="E8" s="0">
-        <v>-0.7518483674180696</v>
+        <v>-1.4980353329222664</v>
       </c>
       <c r="F8" s="0">
-        <v>1.0769523176939124</v>
+        <v>0.54372479035814891</v>
       </c>
       <c r="G8" s="0">
-        <v>2.8960460253263154</v>
+        <v>2.665397059003066</v>
       </c>
       <c r="H8" s="0">
-        <v>-2.5026633382978249</v>
+        <v>-3.1386784005428345</v>
       </c>
       <c r="I8" s="0">
-        <v>0.038786701399367796</v>
+        <v>-0.26454039140166741</v>
       </c>
       <c r="J8" s="0">
-        <v>2.4612885776974531</v>
+        <v>2.506466603706313</v>
       </c>
       <c r="K8" s="0">
-        <v>-1.1544135956806065</v>
+        <v>-1.3087205788493472</v>
       </c>
       <c r="L8" s="0">
-        <v>-0.023042149997050801</v>
+        <v>0.041654796686195414</v>
       </c>
       <c r="M8" s="0">
-        <v>1.1172813759438327</v>
+        <v>1.3326781333202538</v>
       </c>
       <c r="N8" s="0">
-        <v>-0.81168734045052382</v>
+        <v>-0.81371997176697286</v>
       </c>
       <c r="O8" s="0">
-        <v>-0.013619971485836629</v>
+        <v>0.0040594258520593694</v>
       </c>
       <c r="P8" s="0">
-        <v>0.81079114078499093</v>
+        <v>0.80782656314630885</v>
       </c>
       <c r="Q8" s="0">
-        <v>-1.145235745691338</v>
+        <v>-1.2151472765377931</v>
       </c>
       <c r="R8" s="0">
-        <v>-0.028433743913039405</v>
+        <v>-0.013913132184556663</v>
       </c>
       <c r="S8" s="0">
-        <v>1.0634045505575456</v>
+        <v>1.2315979129360057</v>
       </c>
       <c r="T8" s="0">
         <v>94.319999999999993</v>
@@ -647,6 +941,48 @@
         <v>94.319999999999993</v>
       </c>
       <c r="V8" s="0">
+        <v>94.319999999999993</v>
+      </c>
+      <c r="W8" s="0">
+        <v>-0.47335200868416322</v>
+      </c>
+      <c r="X8" s="0">
+        <v>0.038504791265883673</v>
+      </c>
+      <c r="Y8" s="0">
+        <v>0.50489466753340873</v>
+      </c>
+      <c r="Z8" s="0">
+        <v>0.78908556731433666</v>
+      </c>
+      <c r="AA8" s="0">
+        <v>-1.0732562528192799</v>
+      </c>
+      <c r="AB8" s="0">
+        <v>-0.71912582657655455</v>
+      </c>
+      <c r="AC8" s="0">
+        <v>0.0104263179163466</v>
+      </c>
+      <c r="AD8" s="0">
+        <v>0.70587123159389331</v>
+      </c>
+      <c r="AE8" s="0">
+        <v>1.0801159566422418</v>
+      </c>
+      <c r="AF8" s="0">
+        <v>94.319999999999993</v>
+      </c>
+      <c r="AG8" s="0">
+        <v>94.319999999999993</v>
+      </c>
+      <c r="AH8" s="0">
+        <v>94.319999999999993</v>
+      </c>
+      <c r="AI8" s="0">
+        <v>94.319999999999993</v>
+      </c>
+      <c r="AJ8" s="0">
         <v>94.319999999999993</v>
       </c>
     </row>
@@ -655,58 +991,58 @@
         <v>42461</v>
       </c>
       <c r="B9" s="0">
-        <v>-0.19833122980938606</v>
+        <v>-0.57018572715306237</v>
       </c>
       <c r="C9" s="0">
-        <v>1.6973860558897449</v>
+        <v>2.1902432288077347</v>
       </c>
       <c r="D9" s="0">
-        <v>3.7364175394178494</v>
+        <v>4.7588519842114492</v>
       </c>
       <c r="E9" s="0">
-        <v>-0.8119700067532809</v>
+        <v>-1.7751146557947552</v>
       </c>
       <c r="F9" s="0">
-        <v>1.1123438203480824</v>
+        <v>0.5212760371595675</v>
       </c>
       <c r="G9" s="0">
-        <v>3.1649423538855883</v>
+        <v>2.8237654753075896</v>
       </c>
       <c r="H9" s="0">
-        <v>-2.767361510482754</v>
+        <v>-3.5379914319452572</v>
       </c>
       <c r="I9" s="0">
-        <v>-0.034809000377863497</v>
+        <v>-0.35485485254615817</v>
       </c>
       <c r="J9" s="0">
-        <v>2.8183658382731984</v>
+        <v>2.9778644061653927</v>
       </c>
       <c r="K9" s="0">
-        <v>-1.1157096332424821</v>
+        <v>-1.2984788485930308</v>
       </c>
       <c r="L9" s="0">
-        <v>-0.0099406402294982751</v>
+        <v>-0.062152091896134382</v>
       </c>
       <c r="M9" s="0">
-        <v>1.1451593890877323</v>
+        <v>1.2888722461603939</v>
       </c>
       <c r="N9" s="0">
-        <v>-0.76648771169936669</v>
+        <v>-0.87321381018440158</v>
       </c>
       <c r="O9" s="0">
-        <v>-0.030889461158629446</v>
+        <v>-0.0021105826945665568</v>
       </c>
       <c r="P9" s="0">
-        <v>0.77224402720786223</v>
+        <v>0.82962323854523123</v>
       </c>
       <c r="Q9" s="0">
-        <v>-1.0649167575608103</v>
+        <v>-1.2691335764372411</v>
       </c>
       <c r="R9" s="0">
-        <v>-0.0110920013162671</v>
+        <v>0.00012000631131030975</v>
       </c>
       <c r="S9" s="0">
-        <v>1.0914171653582656</v>
+        <v>1.2002082637347988</v>
       </c>
       <c r="T9" s="0">
         <v>94.319999999999993</v>
@@ -715,6 +1051,48 @@
         <v>94.319999999999993</v>
       </c>
       <c r="V9" s="0">
+        <v>94.319999999999993</v>
+      </c>
+      <c r="W9" s="0">
+        <v>-0.52362413410882025</v>
+      </c>
+      <c r="X9" s="0">
+        <v>0.017285526363054127</v>
+      </c>
+      <c r="Y9" s="0">
+        <v>0.57194163318369018</v>
+      </c>
+      <c r="Z9" s="0">
+        <v>0.83898677567359292</v>
+      </c>
+      <c r="AA9" s="0">
+        <v>-1.160504574003355</v>
+      </c>
+      <c r="AB9" s="0">
+        <v>-0.77001405961629765</v>
+      </c>
+      <c r="AC9" s="0">
+        <v>0.0082014721976421852</v>
+      </c>
+      <c r="AD9" s="0">
+        <v>0.76514440441414</v>
+      </c>
+      <c r="AE9" s="0">
+        <v>1.0920573385002221</v>
+      </c>
+      <c r="AF9" s="0">
+        <v>94.319999999999993</v>
+      </c>
+      <c r="AG9" s="0">
+        <v>94.319999999999993</v>
+      </c>
+      <c r="AH9" s="0">
+        <v>94.319999999999993</v>
+      </c>
+      <c r="AI9" s="0">
+        <v>94.319999999999993</v>
+      </c>
+      <c r="AJ9" s="0">
         <v>94.319999999999993</v>
       </c>
     </row>
@@ -723,58 +1101,58 @@
         <v>42552</v>
       </c>
       <c r="B10" s="0">
-        <v>-0.17159614374498228</v>
+        <v>-0.64072198374330336</v>
       </c>
       <c r="C10" s="0">
-        <v>1.6643719559832033</v>
+        <v>2.1395950846680911</v>
       </c>
       <c r="D10" s="0">
-        <v>3.5666033661612371</v>
+        <v>5.0127167854189292</v>
       </c>
       <c r="E10" s="0">
-        <v>-0.89314094306492886</v>
+        <v>-2.0223004109718303</v>
       </c>
       <c r="F10" s="0">
-        <v>1.2145054702813063</v>
+        <v>0.46973466523098056</v>
       </c>
       <c r="G10" s="0">
-        <v>3.2714468446677336</v>
+        <v>3.0546342835950946</v>
       </c>
       <c r="H10" s="0">
-        <v>-3.0677364477091924</v>
+        <v>-3.7901254326972946</v>
       </c>
       <c r="I10" s="0">
-        <v>0.075546088965808195</v>
+        <v>-0.49241961868087109</v>
       </c>
       <c r="J10" s="0">
-        <v>3.1428243846176205</v>
+        <v>3.2622924861390938</v>
       </c>
       <c r="K10" s="0">
-        <v>-1.0959320560370451</v>
+        <v>-1.1869891500681964</v>
       </c>
       <c r="L10" s="0">
-        <v>0.0027359044575005812</v>
+        <v>-0.030823069593821001</v>
       </c>
       <c r="M10" s="0">
-        <v>1.1167932701792185</v>
+        <v>1.237504173557749</v>
       </c>
       <c r="N10" s="0">
-        <v>-0.79859881635878249</v>
+        <v>-0.86079349925671245</v>
       </c>
       <c r="O10" s="0">
-        <v>0.0032113618536522975</v>
+        <v>0.029630943041588767</v>
       </c>
       <c r="P10" s="0">
-        <v>0.79118532060508495</v>
+        <v>0.85479962022561584</v>
       </c>
       <c r="Q10" s="0">
-        <v>-1.0378389640866938</v>
+        <v>-1.0987873508393409</v>
       </c>
       <c r="R10" s="0">
-        <v>0.0068815295276704186</v>
+        <v>0.036743166595217945</v>
       </c>
       <c r="S10" s="0">
-        <v>1.1230340387019662</v>
+        <v>1.2097220650723894</v>
       </c>
       <c r="T10" s="0">
         <v>94.319999999999993</v>
@@ -783,6 +1161,48 @@
         <v>94.319999999999993</v>
       </c>
       <c r="V10" s="0">
+        <v>94.319999999999993</v>
+      </c>
+      <c r="W10" s="0">
+        <v>-0.55540666037259734</v>
+      </c>
+      <c r="X10" s="0">
+        <v>-0.027795288998442594</v>
+      </c>
+      <c r="Y10" s="0">
+        <v>0.56669586381425652</v>
+      </c>
+      <c r="Z10" s="0">
+        <v>0.82677939892791363</v>
+      </c>
+      <c r="AA10" s="0">
+        <v>-1.1118706060464185</v>
+      </c>
+      <c r="AB10" s="0">
+        <v>-0.71496161627220178</v>
+      </c>
+      <c r="AC10" s="0">
+        <v>-0.0061362449398094238</v>
+      </c>
+      <c r="AD10" s="0">
+        <v>0.67256526147786966</v>
+      </c>
+      <c r="AE10" s="0">
+        <v>1.057578164837538</v>
+      </c>
+      <c r="AF10" s="0">
+        <v>94.319999999999993</v>
+      </c>
+      <c r="AG10" s="0">
+        <v>94.319999999999993</v>
+      </c>
+      <c r="AH10" s="0">
+        <v>94.319999999999993</v>
+      </c>
+      <c r="AI10" s="0">
+        <v>94.319999999999993</v>
+      </c>
+      <c r="AJ10" s="0">
         <v>94.319999999999993</v>
       </c>
     </row>
@@ -791,58 +1211,58 @@
         <v>42644</v>
       </c>
       <c r="B11" s="0">
-        <v>-0.41433820020202661</v>
+        <v>-0.80728438109740908</v>
       </c>
       <c r="C11" s="0">
-        <v>1.5588654596856406</v>
+        <v>2.0676241157868489</v>
       </c>
       <c r="D11" s="0">
-        <v>3.4200203948549524</v>
+        <v>5.1621005331581884</v>
       </c>
       <c r="E11" s="0">
-        <v>-0.99514637580641507</v>
+        <v>-2.2967429277375251</v>
       </c>
       <c r="F11" s="0">
-        <v>1.2266570779844652</v>
+        <v>0.4284666286110399</v>
       </c>
       <c r="G11" s="0">
-        <v>3.4920390181733136</v>
+        <v>3.1578571687360926</v>
       </c>
       <c r="H11" s="0">
-        <v>-3.2854926985459425</v>
+        <v>-4.2306415104219068</v>
       </c>
       <c r="I11" s="0">
-        <v>0.068002217132552154</v>
+        <v>-0.60294612534503012</v>
       </c>
       <c r="J11" s="0">
-        <v>3.1911804198452103</v>
+        <v>3.3208558492872244</v>
       </c>
       <c r="K11" s="0">
-        <v>-1.2698729428501778</v>
+        <v>-1.2127325302980867</v>
       </c>
       <c r="L11" s="0">
-        <v>-0.10194011465320843</v>
+        <v>0.0083764284938464655</v>
       </c>
       <c r="M11" s="0">
-        <v>1.1194975676648828</v>
+        <v>1.2903560332067441</v>
       </c>
       <c r="N11" s="0">
-        <v>-0.83629662504412072</v>
+        <v>-0.87483670639191669</v>
       </c>
       <c r="O11" s="0">
-        <v>-0.017236407841014503</v>
+        <v>-0.0028948667071792833</v>
       </c>
       <c r="P11" s="0">
-        <v>0.77293441532321661</v>
+        <v>0.8196053025425194</v>
       </c>
       <c r="Q11" s="0">
-        <v>-1.1170161457084018</v>
+        <v>-1.1956080394073418</v>
       </c>
       <c r="R11" s="0">
-        <v>-0.0286567504874915</v>
+        <v>-0.044882758294285528</v>
       </c>
       <c r="S11" s="0">
-        <v>1.1464976889257221</v>
+        <v>1.1367056431799996</v>
       </c>
       <c r="T11" s="0">
         <v>94.319999999999993</v>
@@ -851,6 +1271,48 @@
         <v>94.319999999999993</v>
       </c>
       <c r="V11" s="0">
+        <v>94.319999999999993</v>
+      </c>
+      <c r="W11" s="0">
+        <v>-0.49429323357910115</v>
+      </c>
+      <c r="X11" s="0">
+        <v>0.029775324960887091</v>
+      </c>
+      <c r="Y11" s="0">
+        <v>0.60091382386016978</v>
+      </c>
+      <c r="Z11" s="0">
+        <v>0.81325541284595526</v>
+      </c>
+      <c r="AA11" s="0">
+        <v>-1.1305481024427519</v>
+      </c>
+      <c r="AB11" s="0">
+        <v>-0.78447338657392351</v>
+      </c>
+      <c r="AC11" s="0">
+        <v>-0.031614513454765028</v>
+      </c>
+      <c r="AD11" s="0">
+        <v>0.74699182096291605</v>
+      </c>
+      <c r="AE11" s="0">
+        <v>1.1266450763555946</v>
+      </c>
+      <c r="AF11" s="0">
+        <v>94.319999999999993</v>
+      </c>
+      <c r="AG11" s="0">
+        <v>94.319999999999993</v>
+      </c>
+      <c r="AH11" s="0">
+        <v>94.319999999999993</v>
+      </c>
+      <c r="AI11" s="0">
+        <v>94.319999999999993</v>
+      </c>
+      <c r="AJ11" s="0">
         <v>94.319999999999993</v>
       </c>
     </row>
